--- a/PkoGenerator.Tests/doc/TestCounterpartiesList.xlsx
+++ b/PkoGenerator.Tests/doc/TestCounterpartiesList.xlsx
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -348,19 +352,20 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -368,19 +373,20 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>15000</v>
+      <c r="B2" s="1">
+        <v>15000.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>